--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11871.59179960468</v>
+        <v>2362446.768121331</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11871.59179960468</v>
+        <v>2362446.768121331</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28694.2203991005</v>
+        <v>1723235.159682167</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28694.2203991005</v>
+        <v>1723235.159682167</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190133179.080084</v>
+        <v>48904217.64420459</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11864.58200997446</v>
+        <v>1261065.798577088</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22064.64598005943</v>
+        <v>2236749.246931761</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32264.70995014437</v>
+        <v>3212432.695286436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43547.11719561643</v>
+        <v>4129809.448641917</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54829.52444108846</v>
+        <v>5047186.201997397</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65149.12864547437</v>
+        <v>6022464.439087283</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75468.73284986029</v>
+        <v>6997742.676177166</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85788.33705424621</v>
+        <v>7973020.91326705</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96846.8202567819</v>
+        <v>8872376.517547209</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107982.5416134197</v>
+        <v>9789594.730826471</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119117.5502427847</v>
+        <v>10706671.11137846</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130252.5588721498</v>
+        <v>11623747.49193047</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141387.5675015148</v>
+        <v>12540823.87248247</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152522.6202415861</v>
+        <v>13457900.25303447</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163668.5709188693</v>
+        <v>14374417.61731464</v>
       </c>
     </row>
   </sheetData>
